--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V2..0.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V2..0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\QUINTO SEMESTRE MAYO 23 - SEPTIEMBRE 23\NahirCarrera_14765_G1_MPSW\PREGAME\2. PRIMERA ITERACIÓN\1.6 Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\QUINTO SEMESTRE MAYO 23 - SEPTIEMBRE 23\NahirCarrera_14765_G1_MPSW\PREGAME\1. ELICITACIÓN\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC855569-53AA-4C40-B85D-FFF8B2599830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C352ACF-F6B2-4802-9C49-FDB657384AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -2074,7 +2074,7 @@
   </sheetPr>
   <dimension ref="B1:I1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3356,7 +3356,7 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:F12"/>
     </sheetView>
   </sheetViews>

--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V2..0.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V2..0.0.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\QUINTO SEMESTRE MAYO 23 - SEPTIEMBRE 23\NahirCarrera_14765_G1_MPSW\PREGAME\1. ELICITACIÓN\1.6 Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\OneDrive - UNIVERSIDAD DE LAS FUERZAS ARMADAS ESPE\Escritorio\ESPE\4 SEMESTRE\Mod Procs Desarrollo de software\NahirCarrera_14765_G1_MPSW\PREGAME\1. ELICITACIÓN\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C352ACF-F6B2-4802-9C49-FDB657384AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A68DFA-57F6-4255-B61E-2CC61416689A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="sprint0" sheetId="2" r:id="rId2"/>
+    <sheet name="sprint2" sheetId="2" r:id="rId2"/>
     <sheet name="burdonchart" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="umbVZyOcx52yre52oR6StKY4AhwVaEfQZSgxcWGFbfY="/>
@@ -2074,7 +2085,7 @@
   </sheetPr>
   <dimension ref="B1:I1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3356,7 +3367,7 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:F12"/>
     </sheetView>
   </sheetViews>
